--- a/Upkeep_v3/Upkeep_v3/General_Masters/Template/RetailerData.xlsx
+++ b/Upkeep_v3/Upkeep_v3/General_Masters/Template/RetailerData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,22 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>StoreName</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>PhoneNO</t>
-  </si>
-  <si>
-    <t>EmailID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PUMA</t>
   </si>
@@ -67,16 +52,68 @@
   </si>
   <si>
     <t>hjgj@jdhfj.fds</t>
+  </si>
+  <si>
+    <t>Store_No</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>G100</t>
+  </si>
+  <si>
+    <t>F202</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>Store_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Phone_No</t>
+  </si>
+  <si>
+    <t>Email_ID</t>
+  </si>
+  <si>
+    <t>Pincode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,88 +444,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2">
+        <v>898565656</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>75867586767</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>898565656</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" s="1">
+        <v>6678460000000</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="D3">
-        <v>75867586767</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6678460000000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
